--- a/WTT_Uploader.xlsx
+++ b/WTT_Uploader.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicko\Documents\GitHub\trackingtables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBEFB9E-67B2-4EE9-9335-A9B0140B7B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0667ACD-F87B-4A74-BB01-EB735B703C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uploader" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1245,7 +1247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E273"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/WTT_Uploader.xlsx
+++ b/WTT_Uploader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicko\Documents\GitHub\trackingtables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC61FFC2-B564-427A-92BB-B8AC915FE7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A404D2-40B3-4342-AD46-5E1472D1224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1046,28 +1046,28 @@
         <v>''</v>
       </c>
       <c r="F2" s="6" t="str">
-        <f>"('"&amp;A2&amp;"', "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;"),"</f>
-        <v>('', , , ),</v>
+        <f>"('"&amp;A2&amp;"', "&amp;B2&amp;", "&amp;C2&amp;", "&amp;E2&amp;"),"</f>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E66" si="0">IF(D3="NULL",D3,"'"&amp;D3&amp;"'")</f>
+        <f t="shared" ref="E3:E48" si="0">IF(D3="NULL",D3,"'"&amp;D3&amp;"'")</f>
         <v>''</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f t="shared" ref="F3:F66" si="1">"('"&amp;A3&amp;"', "&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;"),"</f>
-        <v>('', , , ),</v>
+        <f t="shared" ref="F3:F48" si="1">"('"&amp;A3&amp;"', "&amp;B3&amp;", "&amp;C3&amp;", "&amp;E3&amp;"),"</f>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1075,35 +1075,35 @@
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,39 +1173,39 @@
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="F37" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="F39" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F42" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -1655,1158 +1655,7 @@
       </c>
       <c r="F48" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>''</v>
-      </c>
-      <c r="F66" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="6" t="str">
-        <f t="shared" ref="E67:E130" si="2">IF(D67="NULL",D67,"'"&amp;D67&amp;"'")</f>
-        <v>''</v>
-      </c>
-      <c r="F67" s="6" t="str">
-        <f t="shared" ref="F67:F130" si="3">"('"&amp;A67&amp;"', "&amp;B67&amp;", "&amp;C67&amp;", "&amp;D67&amp;"),"</f>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F68" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F69" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F70" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F71" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F72" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E73" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F73" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E74" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F74" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F75" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E76" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F76" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E77" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F77" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E78" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F78" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F79" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F80" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F81" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F82" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F83" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F84" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F85" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F86" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F87" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F88" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F89" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F90" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F91" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F92" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F93" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F94" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F95" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F96" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E97" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F97" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F98" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F99" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F100" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F101" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F102" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F103" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E104" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F104" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E105" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F105" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E106" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F106" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E107" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F107" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E108" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F108" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F109" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E110" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F110" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E111" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F111" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E112" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F112" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E113" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F113" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E114" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F114" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F115" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E116" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F116" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E117" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F117" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E118" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F118" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E119" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F119" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E120" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F120" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E121" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F121" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E122" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F122" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E123" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F123" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E124" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F124" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E125" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F125" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E126" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F126" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E127" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F127" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E128" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F128" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F129" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E130" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>''</v>
-      </c>
-      <c r="F130" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E131" s="6" t="str">
-        <f t="shared" ref="E131:E161" si="4">IF(D131="NULL",D131,"'"&amp;D131&amp;"'")</f>
-        <v>''</v>
-      </c>
-      <c r="F131" s="6" t="str">
-        <f t="shared" ref="F131:F161" si="5">"('"&amp;A131&amp;"', "&amp;B131&amp;", "&amp;C131&amp;", "&amp;D131&amp;"),"</f>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E132" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F132" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F133" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F134" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E135" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F135" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F136" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F137" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E138" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F138" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E139" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F139" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F140" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F141" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E142" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F142" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F143" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F144" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E145" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F145" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E146" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F146" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E147" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F147" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E148" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F148" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E149" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F149" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E150" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F150" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E151" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F151" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E152" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F152" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E153" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F153" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E154" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F154" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E155" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F155" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E156" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F156" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E157" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F157" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E158" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F158" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E159" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F159" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E160" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F160" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
-      </c>
-    </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E161" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>''</v>
-      </c>
-      <c r="F161" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>('', , , ),</v>
+        <v>('', , , ''),</v>
       </c>
     </row>
   </sheetData>
@@ -2816,13 +1665,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
@@ -2851,27 +1700,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -2907,18 +1756,18 @@
       <c r="A12" s="14"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2976,22 +1825,21 @@
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="16"/>
     </row>
@@ -3000,6 +1848,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
@@ -3021,8 +1870,8 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3127,48 +1976,6 @@
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WTT_Uploader.xlsx
+++ b/WTT_Uploader.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicko\Documents\GitHub\trackingtables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC61FFC2-B564-427A-92BB-B8AC915FE7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD12BBA9-383C-462B-88CC-2645C9FA7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uploader" sheetId="1" r:id="rId1"/>
